--- a/www/IndicatorsPerCountry/Congo_GDPperCapita_TerritorialRef_1960_2012_CCode_178.xlsx
+++ b/www/IndicatorsPerCountry/Congo_GDPperCapita_TerritorialRef_1960_2012_CCode_178.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Congo_GDPperCapita_TerritorialRef_1960_2012_CCode_178.xlsx
+++ b/www/IndicatorsPerCountry/Congo_GDPperCapita_TerritorialRef_1960_2012_CCode_178.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1198</t>
-  </si>
-  <si>
-    <t>1222</t>
-  </si>
-  <si>
-    <t>1245</t>
-  </si>
-  <si>
-    <t>1267</t>
-  </si>
-  <si>
-    <t>1290</t>
-  </si>
-  <si>
-    <t>1313</t>
-  </si>
-  <si>
-    <t>1334</t>
-  </si>
-  <si>
-    <t>1356</t>
-  </si>
-  <si>
-    <t>1378</t>
-  </si>
-  <si>
-    <t>1399</t>
-  </si>
-  <si>
-    <t>1416</t>
-  </si>
-  <si>
-    <t>1430</t>
-  </si>
-  <si>
-    <t>1444</t>
-  </si>
-  <si>
-    <t>1458</t>
-  </si>
-  <si>
-    <t>1472</t>
-  </si>
-  <si>
-    <t>1486</t>
-  </si>
-  <si>
-    <t>1527</t>
-  </si>
-  <si>
-    <t>1569</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1653</t>
-  </si>
-  <si>
-    <t>1696</t>
-  </si>
-  <si>
-    <t>1786</t>
-  </si>
-  <si>
-    <t>1882</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>2084</t>
-  </si>
-  <si>
-    <t>2191</t>
-  </si>
-  <si>
-    <t>2141</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1824</t>
-  </si>
-  <si>
-    <t>2043</t>
-  </si>
-  <si>
-    <t>2324</t>
-  </si>
-  <si>
-    <t>2725</t>
-  </si>
-  <si>
-    <t>2857</t>
-  </si>
-  <si>
-    <t>2913</t>
-  </si>
-  <si>
-    <t>3008</t>
-  </si>
-  <si>
-    <t>2787</t>
-  </si>
-  <si>
-    <t>2519</t>
-  </si>
-  <si>
-    <t>2460</t>
-  </si>
-  <si>
-    <t>2389</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2380.40495128</t>
-  </si>
-  <si>
-    <t>2363.07591209</t>
-  </si>
-  <si>
-    <t>2351.09231218</t>
-  </si>
-  <si>
-    <t>2254.13306863</t>
-  </si>
-  <si>
-    <t>2062.41158592</t>
-  </si>
-  <si>
-    <t>2080.71640783</t>
-  </si>
-  <si>
-    <t>2105.63237438</t>
-  </si>
-  <si>
-    <t>2039.63005478</t>
-  </si>
-  <si>
-    <t>2058.33690683</t>
-  </si>
-  <si>
-    <t>1934.51775164</t>
-  </si>
-  <si>
-    <t>2004.22624013</t>
-  </si>
-  <si>
-    <t>1989.2061262</t>
-  </si>
-  <si>
-    <t>2039.68207022</t>
-  </si>
-  <si>
-    <t>2005.41670462</t>
-  </si>
-  <si>
-    <t>2022.69459338</t>
-  </si>
-  <si>
-    <t>2119.86563825</t>
-  </si>
-  <si>
-    <t>2190.30165851</t>
-  </si>
-  <si>
-    <t>2099.76403954</t>
-  </si>
-  <si>
-    <t>2159.02135974</t>
+    <t>1693</t>
+  </si>
+  <si>
+    <t>1726</t>
+  </si>
+  <si>
+    <t>1758</t>
+  </si>
+  <si>
+    <t>1790</t>
+  </si>
+  <si>
+    <t>1822</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>1884</t>
+  </si>
+  <si>
+    <t>1914</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2059</t>
+  </si>
+  <si>
+    <t>2079</t>
+  </si>
+  <si>
+    <t>2099</t>
+  </si>
+  <si>
+    <t>2157</t>
+  </si>
+  <si>
+    <t>2216</t>
+  </si>
+  <si>
+    <t>2275</t>
+  </si>
+  <si>
+    <t>2335</t>
+  </si>
+  <si>
+    <t>2396</t>
+  </si>
+  <si>
+    <t>2546</t>
+  </si>
+  <si>
+    <t>2582</t>
+  </si>
+  <si>
+    <t>2950</t>
+  </si>
+  <si>
+    <t>2848</t>
+  </si>
+  <si>
+    <t>2745</t>
+  </si>
+  <si>
+    <t>2794</t>
+  </si>
+  <si>
+    <t>2517</t>
+  </si>
+  <si>
+    <t>2595</t>
+  </si>
+  <si>
+    <t>2807</t>
+  </si>
+  <si>
+    <t>3075</t>
+  </si>
+  <si>
+    <t>3625</t>
+  </si>
+  <si>
+    <t>4355</t>
+  </si>
+  <si>
+    <t>4473</t>
+  </si>
+  <si>
+    <t>4664</t>
+  </si>
+  <si>
+    <t>4484</t>
+  </si>
+  <si>
+    <t>4058</t>
+  </si>
+  <si>
+    <t>3953</t>
+  </si>
+  <si>
+    <t>3908</t>
+  </si>
+  <si>
+    <t>3865</t>
+  </si>
+  <si>
+    <t>3794</t>
+  </si>
+  <si>
+    <t>3862.57433398122</t>
+  </si>
+  <si>
+    <t>3940.97172910264</t>
+  </si>
+  <si>
+    <t>3874.16978461464</t>
+  </si>
+  <si>
+    <t>3635.98917024344</t>
+  </si>
+  <si>
+    <t>3763.59580118657</t>
+  </si>
+  <si>
+    <t>3988.87730463448</t>
+  </si>
+  <si>
+    <t>3899.76268542608</t>
+  </si>
+  <si>
+    <t>4042.77828134958</t>
+  </si>
+  <si>
+    <t>3925.68643829626</t>
+  </si>
+  <si>
+    <t>4159.22273739588</t>
+  </si>
+  <si>
+    <t>4256.65537117082</t>
+  </si>
+  <si>
+    <t>4458.63422368835</t>
+  </si>
+  <si>
+    <t>4467.9039644057</t>
+  </si>
+  <si>
+    <t>4560.51251418364</t>
+  </si>
+  <si>
+    <t>4820.70728800517</t>
+  </si>
+  <si>
+    <t>5016.05763935475</t>
+  </si>
+  <si>
+    <t>4844.9702396029</t>
+  </si>
+  <si>
+    <t>5081.13158781301</t>
+  </si>
+  <si>
+    <t>5379.00417690191</t>
+  </si>
+  <si>
+    <t>5738.16299309802</t>
+  </si>
+  <si>
+    <t>5875</t>
+  </si>
+  <si>
+    <t>5949</t>
+  </si>
+  <si>
+    <t>6031</t>
+  </si>
+  <si>
+    <t>6321</t>
+  </si>
+  <si>
+    <t>6272</t>
+  </si>
+  <si>
+    <t>5974</t>
   </si>
   <si>
     <t>Description</t>
@@ -1317,6 +1341,142 @@
         <v>65</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1332,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
